--- a/owlcms/src/main/resources/config/AgeGroups_fr_FR.xlsx
+++ b/owlcms/src/main/resources/config/AgeGroups_fr_FR.xlsx
@@ -1,18 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\git\owlcms4\owlcms\src\main\resources\config\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B76145D9-3CB9-4F45-A2C9-5A25F3818622}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="BW Categories" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="BW vs AgeGroups" sheetId="2" r:id="rId5"/>
+    <sheet name="BW Categories" sheetId="1" r:id="rId1"/>
+    <sheet name="BW vs AgeGroups" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="76">
   <si>
     <t>code</t>
   </si>
@@ -245,38 +254,38 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
     </font>
@@ -286,7 +295,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -302,63 +311,53 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -548,20 +547,23 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -582,496 +584,496 @@
       </c>
       <c r="H1" s="4"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="6">
-        <v>35.0</v>
-      </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="H2" s="10" t="s">
+      <c r="C2" s="5">
+        <v>35</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="H2" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="6">
-        <v>40.0</v>
-      </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="H3" s="10" t="s">
+      <c r="C3" s="5">
+        <v>40</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="H3" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="6">
-        <v>45.0</v>
-      </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="H4" s="8"/>
-    </row>
-    <row r="5">
+      <c r="C4" s="5">
+        <v>45</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="6">
-        <v>49.0</v>
-      </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="6">
-        <v>221.0</v>
-      </c>
-    </row>
-    <row r="6">
+      <c r="C5" s="5">
+        <v>49</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="5">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="6">
-        <v>55.0</v>
-      </c>
-      <c r="D6" s="6">
-        <v>294.0</v>
-      </c>
-      <c r="E6" s="6">
-        <v>264.0</v>
-      </c>
-      <c r="F6" s="6">
-        <v>248.0</v>
-      </c>
-    </row>
-    <row r="7">
+      <c r="C6" s="5">
+        <v>55</v>
+      </c>
+      <c r="D6" s="5">
+        <v>294</v>
+      </c>
+      <c r="E6" s="5">
+        <v>264</v>
+      </c>
+      <c r="F6" s="5">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="6">
-        <v>61.0</v>
-      </c>
-      <c r="D7" s="6">
-        <v>318.0</v>
-      </c>
-      <c r="E7" s="6">
-        <v>293.0</v>
-      </c>
-      <c r="F7" s="6">
-        <v>272.0</v>
-      </c>
-    </row>
-    <row r="8">
+      <c r="C7" s="5">
+        <v>61</v>
+      </c>
+      <c r="D7" s="5">
+        <v>318</v>
+      </c>
+      <c r="E7" s="5">
+        <v>293</v>
+      </c>
+      <c r="F7" s="5">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="6">
-        <v>67.0</v>
-      </c>
-      <c r="D8" s="6">
-        <v>339.0</v>
-      </c>
-      <c r="E8" s="6">
-        <v>328.0</v>
-      </c>
-      <c r="F8" s="6">
-        <v>299.0</v>
-      </c>
-    </row>
-    <row r="9">
+      <c r="C8" s="5">
+        <v>67</v>
+      </c>
+      <c r="D8" s="5">
+        <v>339</v>
+      </c>
+      <c r="E8" s="5">
+        <v>328</v>
+      </c>
+      <c r="F8" s="5">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="6">
-        <v>73.0</v>
-      </c>
-      <c r="D9" s="6">
-        <v>363.0</v>
-      </c>
-      <c r="E9" s="6">
-        <v>347.0</v>
-      </c>
-      <c r="F9" s="6">
-        <v>306.0</v>
-      </c>
-    </row>
-    <row r="10">
+      <c r="C9" s="5">
+        <v>73</v>
+      </c>
+      <c r="D9" s="5">
+        <v>363</v>
+      </c>
+      <c r="E9" s="5">
+        <v>347</v>
+      </c>
+      <c r="F9" s="5">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="6">
-        <v>81.0</v>
-      </c>
-      <c r="D10" s="6">
-        <v>378.0</v>
-      </c>
-      <c r="E10" s="6">
-        <v>372.0</v>
-      </c>
-      <c r="F10" s="6">
-        <v>327.0</v>
-      </c>
-    </row>
-    <row r="11">
+      <c r="C10" s="5">
+        <v>81</v>
+      </c>
+      <c r="D10" s="5">
+        <v>378</v>
+      </c>
+      <c r="E10" s="5">
+        <v>372</v>
+      </c>
+      <c r="F10" s="5">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="6">
-        <v>89.0</v>
-      </c>
-      <c r="D11" s="6">
-        <v>387.0</v>
-      </c>
-      <c r="E11" s="6">
-        <v>371.0</v>
-      </c>
-      <c r="F11" s="6">
-        <v>357.0</v>
-      </c>
-    </row>
-    <row r="12">
+      <c r="C11" s="5">
+        <v>89</v>
+      </c>
+      <c r="D11" s="5">
+        <v>387</v>
+      </c>
+      <c r="E11" s="5">
+        <v>371</v>
+      </c>
+      <c r="F11" s="5">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="6">
-        <v>96.0</v>
-      </c>
-      <c r="D12" s="6">
-        <v>416.0</v>
-      </c>
-      <c r="E12" s="6">
-        <v>397.0</v>
-      </c>
-      <c r="F12" s="6">
-        <v>354.0</v>
-      </c>
-    </row>
-    <row r="13">
+      <c r="C12" s="5">
+        <v>96</v>
+      </c>
+      <c r="D12" s="5">
+        <v>416</v>
+      </c>
+      <c r="E12" s="5">
+        <v>397</v>
+      </c>
+      <c r="F12" s="5">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="6">
-        <v>102.0</v>
-      </c>
-      <c r="D13" s="6">
-        <v>412.0</v>
-      </c>
-      <c r="E13" s="6">
-        <v>392.0</v>
-      </c>
-      <c r="F13" s="6">
-        <v>377.0</v>
-      </c>
-    </row>
-    <row r="14">
+      <c r="C13" s="5">
+        <v>102</v>
+      </c>
+      <c r="D13" s="5">
+        <v>412</v>
+      </c>
+      <c r="E13" s="5">
+        <v>392</v>
+      </c>
+      <c r="F13" s="5">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="6">
-        <v>109.0</v>
-      </c>
-      <c r="D14" s="6">
-        <v>435.0</v>
-      </c>
-      <c r="E14" s="6">
-        <v>417.0</v>
-      </c>
-      <c r="F14" s="8"/>
-    </row>
-    <row r="15">
+      <c r="C14" s="5">
+        <v>109</v>
+      </c>
+      <c r="D14" s="5">
+        <v>435</v>
+      </c>
+      <c r="E14" s="5">
+        <v>417</v>
+      </c>
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="6">
-        <v>999.0</v>
-      </c>
-      <c r="D15" s="6">
-        <v>484.0</v>
-      </c>
-      <c r="E15" s="6">
-        <v>432.0</v>
-      </c>
-      <c r="F15" s="6">
-        <v>396.0</v>
+      <c r="C15" s="5">
+        <v>999</v>
+      </c>
+      <c r="D15" s="5">
+        <v>484</v>
+      </c>
+      <c r="E15" s="5">
+        <v>432</v>
+      </c>
+      <c r="F15" s="5">
+        <v>396</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="6">
-        <v>35.0</v>
-      </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-    </row>
-    <row r="17">
+      <c r="C16" s="5">
+        <v>35</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="6">
-        <v>40.0</v>
-      </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="6">
-        <v>135.0</v>
-      </c>
-    </row>
-    <row r="18">
+      <c r="C17" s="5">
+        <v>40</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="5">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="6">
-        <v>45.0</v>
-      </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="6">
-        <v>179.0</v>
-      </c>
-      <c r="F18" s="6">
-        <v>172.0</v>
-      </c>
-    </row>
-    <row r="19">
+      <c r="C18" s="5">
+        <v>45</v>
+      </c>
+      <c r="D18" s="7"/>
+      <c r="E18" s="5">
+        <v>179</v>
+      </c>
+      <c r="F18" s="5">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="6">
-        <v>49.0</v>
-      </c>
-      <c r="D19" s="6">
-        <v>210.0</v>
-      </c>
-      <c r="E19" s="6">
-        <v>206.0</v>
-      </c>
-      <c r="F19" s="6">
-        <v>190.0</v>
-      </c>
-    </row>
-    <row r="20">
+      <c r="C19" s="5">
+        <v>49</v>
+      </c>
+      <c r="D19" s="5">
+        <v>210</v>
+      </c>
+      <c r="E19" s="5">
+        <v>206</v>
+      </c>
+      <c r="F19" s="5">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="6">
-        <v>55.0</v>
-      </c>
-      <c r="D20" s="6">
-        <v>232.0</v>
-      </c>
-      <c r="E20" s="6">
-        <v>211.0</v>
-      </c>
-      <c r="F20" s="6">
-        <v>197.0</v>
-      </c>
-    </row>
-    <row r="21">
+      <c r="C20" s="5">
+        <v>55</v>
+      </c>
+      <c r="D20" s="5">
+        <v>232</v>
+      </c>
+      <c r="E20" s="5">
+        <v>211</v>
+      </c>
+      <c r="F20" s="5">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="6">
-        <v>59.0</v>
-      </c>
-      <c r="D21" s="6">
-        <v>237.0</v>
-      </c>
-      <c r="E21" s="6">
-        <v>228.0</v>
-      </c>
-      <c r="F21" s="6">
-        <v>228.0</v>
-      </c>
-    </row>
-    <row r="22">
+      <c r="C21" s="5">
+        <v>59</v>
+      </c>
+      <c r="D21" s="5">
+        <v>237</v>
+      </c>
+      <c r="E21" s="5">
+        <v>228</v>
+      </c>
+      <c r="F21" s="5">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="6">
-        <v>64.0</v>
-      </c>
-      <c r="D22" s="6">
-        <v>254.0</v>
-      </c>
-      <c r="E22" s="6">
-        <v>240.0</v>
-      </c>
-      <c r="F22" s="6">
-        <v>222.0</v>
-      </c>
-    </row>
-    <row r="23">
+      <c r="C22" s="5">
+        <v>64</v>
+      </c>
+      <c r="D22" s="5">
+        <v>254</v>
+      </c>
+      <c r="E22" s="5">
+        <v>240</v>
+      </c>
+      <c r="F22" s="5">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="6">
-        <v>71.0</v>
-      </c>
-      <c r="D23" s="6">
-        <v>267.0</v>
-      </c>
-      <c r="E23" s="6">
-        <v>252.0</v>
-      </c>
-      <c r="F23" s="6">
-        <v>225.0</v>
-      </c>
-    </row>
-    <row r="24">
+      <c r="C23" s="5">
+        <v>71</v>
+      </c>
+      <c r="D23" s="5">
+        <v>267</v>
+      </c>
+      <c r="E23" s="5">
+        <v>252</v>
+      </c>
+      <c r="F23" s="5">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="6">
-        <v>76.0</v>
-      </c>
-      <c r="D24" s="6">
-        <v>274.0</v>
-      </c>
-      <c r="E24" s="6">
-        <v>259.0</v>
-      </c>
-      <c r="F24" s="6">
-        <v>229.0</v>
-      </c>
-    </row>
-    <row r="25">
+      <c r="C24" s="5">
+        <v>76</v>
+      </c>
+      <c r="D24" s="5">
+        <v>274</v>
+      </c>
+      <c r="E24" s="5">
+        <v>259</v>
+      </c>
+      <c r="F24" s="5">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="6">
-        <v>81.0</v>
-      </c>
-      <c r="D25" s="6">
-        <v>283.0</v>
-      </c>
-      <c r="E25" s="6">
-        <v>260.0</v>
-      </c>
-      <c r="F25" s="6">
-        <v>231.0</v>
-      </c>
-    </row>
-    <row r="26">
+      <c r="C25" s="5">
+        <v>81</v>
+      </c>
+      <c r="D25" s="5">
+        <v>283</v>
+      </c>
+      <c r="E25" s="5">
+        <v>260</v>
+      </c>
+      <c r="F25" s="5">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="6">
-        <v>87.0</v>
-      </c>
-      <c r="D26" s="6">
-        <v>294.0</v>
-      </c>
-      <c r="E26" s="6">
-        <v>269.0</v>
-      </c>
-      <c r="F26" s="8"/>
-    </row>
-    <row r="27">
+      <c r="C26" s="5">
+        <v>87</v>
+      </c>
+      <c r="D26" s="5">
+        <v>294</v>
+      </c>
+      <c r="E26" s="5">
+        <v>269</v>
+      </c>
+      <c r="F26" s="7"/>
+    </row>
+    <row r="27" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="6">
-        <v>999.0</v>
-      </c>
-      <c r="D27" s="6">
-        <v>330.0</v>
-      </c>
-      <c r="E27" s="6">
-        <v>332.0</v>
-      </c>
-      <c r="F27" s="6">
-        <v>255.0</v>
+      <c r="C27" s="5">
+        <v>999</v>
+      </c>
+      <c r="D27" s="5">
+        <v>330</v>
+      </c>
+      <c r="E27" s="5">
+        <v>332</v>
+      </c>
+      <c r="F27" s="5">
+        <v>255</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>55</v>
@@ -1079,24 +1081,27 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" location="Men" ref="H2"/>
-    <hyperlink r:id="rId2" location="Men" ref="H3"/>
+    <hyperlink ref="H2" r:id="rId1" location="Men" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="H3" r:id="rId2" location="Men" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
-  <drawing r:id="rId3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:U44"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20:S22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1118,22 +1123,24 @@
       <c r="G1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-    </row>
-    <row r="2">
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+    </row>
+    <row r="2" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -1146,33 +1153,33 @@
       <c r="D2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="F2" s="6">
-        <v>10.0</v>
-      </c>
-      <c r="G2" s="9" t="b">
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="5">
+        <v>10</v>
+      </c>
+      <c r="G2" s="8" t="b">
         <v>0</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-    </row>
-    <row r="3">
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+    </row>
+    <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -1185,13 +1192,13 @@
       <c r="D3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="6">
-        <v>11.0</v>
-      </c>
-      <c r="F3" s="6">
-        <v>13.0</v>
-      </c>
-      <c r="G3" s="9" t="b">
+      <c r="E3" s="5">
+        <v>11</v>
+      </c>
+      <c r="F3" s="5">
+        <v>13</v>
+      </c>
+      <c r="G3" s="8" t="b">
         <v>0</v>
       </c>
       <c r="H3" s="1" t="s">
@@ -1221,13 +1228,13 @@
       <c r="P3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-    </row>
-    <row r="4">
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+    </row>
+    <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>29</v>
       </c>
@@ -1240,16 +1247,16 @@
       <c r="D4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="6">
-        <v>14.0</v>
-      </c>
-      <c r="F4" s="6">
-        <v>15.0</v>
-      </c>
-      <c r="G4" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" s="8"/>
+      <c r="E4" s="5">
+        <v>14</v>
+      </c>
+      <c r="F4" s="5">
+        <v>15</v>
+      </c>
+      <c r="G4" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" s="7"/>
       <c r="I4" s="1" t="s">
         <v>22</v>
       </c>
@@ -1280,11 +1287,11 @@
       <c r="R4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-    </row>
-    <row r="5">
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+    </row>
+    <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>34</v>
       </c>
@@ -1297,16 +1304,16 @@
       <c r="D5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="6">
-        <v>16.0</v>
-      </c>
-      <c r="F5" s="6">
-        <v>17.0</v>
-      </c>
-      <c r="G5" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" s="8"/>
+      <c r="E5" s="5">
+        <v>16</v>
+      </c>
+      <c r="F5" s="5">
+        <v>17</v>
+      </c>
+      <c r="G5" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" s="7"/>
       <c r="I5" s="1" t="s">
         <v>22</v>
       </c>
@@ -1337,11 +1344,11 @@
       <c r="R5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="8"/>
-    </row>
-    <row r="6">
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+    </row>
+    <row r="6" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>38</v>
       </c>
@@ -1354,16 +1361,16 @@
       <c r="D6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="6">
-        <v>18.0</v>
-      </c>
-      <c r="F6" s="6">
-        <v>20.0</v>
-      </c>
-      <c r="G6" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" s="8"/>
+      <c r="E6" s="5">
+        <v>18</v>
+      </c>
+      <c r="F6" s="5">
+        <v>20</v>
+      </c>
+      <c r="G6" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" s="7"/>
       <c r="I6" s="1" t="s">
         <v>22</v>
       </c>
@@ -1397,10 +1404,10 @@
       <c r="S6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
-    </row>
-    <row r="7">
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+    </row>
+    <row r="7" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>43</v>
       </c>
@@ -1413,16 +1420,16 @@
       <c r="D7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="6">
-        <v>21.0</v>
-      </c>
-      <c r="F7" s="6">
-        <v>999.0</v>
-      </c>
-      <c r="G7" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" s="8"/>
+      <c r="E7" s="5">
+        <v>21</v>
+      </c>
+      <c r="F7" s="5">
+        <v>999</v>
+      </c>
+      <c r="G7" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" s="7"/>
       <c r="I7" s="1" t="s">
         <v>22</v>
       </c>
@@ -1456,10 +1463,10 @@
       <c r="S7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="T7" s="8"/>
-      <c r="U7" s="8"/>
-    </row>
-    <row r="8">
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+    </row>
+    <row r="8" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>47</v>
       </c>
@@ -1472,16 +1479,16 @@
       <c r="D8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="6">
-        <v>30.0</v>
-      </c>
-      <c r="F8" s="6">
-        <v>34.0</v>
-      </c>
-      <c r="G8" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" s="8"/>
+      <c r="E8" s="5">
+        <v>30</v>
+      </c>
+      <c r="F8" s="5">
+        <v>34</v>
+      </c>
+      <c r="G8" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="7"/>
       <c r="I8" s="1" t="s">
         <v>22</v>
       </c>
@@ -1515,10 +1522,10 @@
       <c r="S8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="T8" s="8"/>
-      <c r="U8" s="8"/>
-    </row>
-    <row r="9">
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+    </row>
+    <row r="9" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
@@ -1531,16 +1538,16 @@
       <c r="D9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="6">
-        <v>35.0</v>
-      </c>
-      <c r="F9" s="6">
-        <v>39.0</v>
-      </c>
-      <c r="G9" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" s="8"/>
+      <c r="E9" s="5">
+        <v>35</v>
+      </c>
+      <c r="F9" s="5">
+        <v>39</v>
+      </c>
+      <c r="G9" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" s="7"/>
       <c r="I9" s="1" t="s">
         <v>22</v>
       </c>
@@ -1574,10 +1581,10 @@
       <c r="S9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="T9" s="8"/>
-      <c r="U9" s="8"/>
-    </row>
-    <row r="10">
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+    </row>
+    <row r="10" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
@@ -1590,16 +1597,16 @@
       <c r="D10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="6">
-        <v>40.0</v>
-      </c>
-      <c r="F10" s="6">
-        <v>44.0</v>
-      </c>
-      <c r="G10" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" s="8"/>
+      <c r="E10" s="5">
+        <v>40</v>
+      </c>
+      <c r="F10" s="5">
+        <v>44</v>
+      </c>
+      <c r="G10" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" s="7"/>
       <c r="I10" s="1" t="s">
         <v>22</v>
       </c>
@@ -1633,10 +1640,10 @@
       <c r="S10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="T10" s="8"/>
-      <c r="U10" s="8"/>
-    </row>
-    <row r="11">
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+    </row>
+    <row r="11" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>23</v>
       </c>
@@ -1649,16 +1656,16 @@
       <c r="D11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="6">
-        <v>45.0</v>
-      </c>
-      <c r="F11" s="6">
-        <v>49.0</v>
-      </c>
-      <c r="G11" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" s="8"/>
+      <c r="E11" s="5">
+        <v>45</v>
+      </c>
+      <c r="F11" s="5">
+        <v>49</v>
+      </c>
+      <c r="G11" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" s="7"/>
       <c r="I11" s="1" t="s">
         <v>22</v>
       </c>
@@ -1692,10 +1699,10 @@
       <c r="S11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="T11" s="8"/>
-      <c r="U11" s="8"/>
-    </row>
-    <row r="12">
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+    </row>
+    <row r="12" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>54</v>
       </c>
@@ -1708,16 +1715,16 @@
       <c r="D12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="6">
-        <v>50.0</v>
-      </c>
-      <c r="F12" s="6">
-        <v>54.0</v>
-      </c>
-      <c r="G12" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12" s="8"/>
+      <c r="E12" s="5">
+        <v>50</v>
+      </c>
+      <c r="F12" s="5">
+        <v>54</v>
+      </c>
+      <c r="G12" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" s="7"/>
       <c r="I12" s="1" t="s">
         <v>22</v>
       </c>
@@ -1751,10 +1758,10 @@
       <c r="S12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="T12" s="8"/>
-      <c r="U12" s="8"/>
-    </row>
-    <row r="13">
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+    </row>
+    <row r="13" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
@@ -1767,16 +1774,16 @@
       <c r="D13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="6">
-        <v>55.0</v>
-      </c>
-      <c r="F13" s="6">
-        <v>59.0</v>
-      </c>
-      <c r="G13" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13" s="8"/>
+      <c r="E13" s="5">
+        <v>55</v>
+      </c>
+      <c r="F13" s="5">
+        <v>59</v>
+      </c>
+      <c r="G13" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" s="7"/>
       <c r="I13" s="1" t="s">
         <v>22</v>
       </c>
@@ -1810,10 +1817,10 @@
       <c r="S13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="T13" s="8"/>
-      <c r="U13" s="8"/>
-    </row>
-    <row r="14">
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+    </row>
+    <row r="14" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>56</v>
       </c>
@@ -1826,16 +1833,16 @@
       <c r="D14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="6">
-        <v>60.0</v>
-      </c>
-      <c r="F14" s="6">
-        <v>64.0</v>
-      </c>
-      <c r="G14" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14" s="8"/>
+      <c r="E14" s="5">
+        <v>60</v>
+      </c>
+      <c r="F14" s="5">
+        <v>64</v>
+      </c>
+      <c r="G14" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" s="7"/>
       <c r="I14" s="1" t="s">
         <v>22</v>
       </c>
@@ -1869,10 +1876,10 @@
       <c r="S14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="T14" s="8"/>
-      <c r="U14" s="8"/>
-    </row>
-    <row r="15">
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+    </row>
+    <row r="15" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>57</v>
       </c>
@@ -1885,16 +1892,16 @@
       <c r="D15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="6">
-        <v>65.0</v>
-      </c>
-      <c r="F15" s="6">
-        <v>69.0</v>
-      </c>
-      <c r="G15" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15" s="8"/>
+      <c r="E15" s="5">
+        <v>65</v>
+      </c>
+      <c r="F15" s="5">
+        <v>69</v>
+      </c>
+      <c r="G15" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" s="7"/>
       <c r="I15" s="1" t="s">
         <v>22</v>
       </c>
@@ -1928,10 +1935,10 @@
       <c r="S15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="T15" s="8"/>
-      <c r="U15" s="8"/>
-    </row>
-    <row r="16">
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+    </row>
+    <row r="16" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>58</v>
       </c>
@@ -1944,16 +1951,16 @@
       <c r="D16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="6">
-        <v>70.0</v>
-      </c>
-      <c r="F16" s="6">
-        <v>74.0</v>
-      </c>
-      <c r="G16" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16" s="8"/>
+      <c r="E16" s="5">
+        <v>70</v>
+      </c>
+      <c r="F16" s="5">
+        <v>74</v>
+      </c>
+      <c r="G16" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16" s="7"/>
       <c r="I16" s="1" t="s">
         <v>22</v>
       </c>
@@ -1987,10 +1994,10 @@
       <c r="S16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="T16" s="8"/>
-      <c r="U16" s="8"/>
-    </row>
-    <row r="17">
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+    </row>
+    <row r="17" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>59</v>
       </c>
@@ -2003,16 +2010,16 @@
       <c r="D17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="6">
-        <v>75.0</v>
-      </c>
-      <c r="F17" s="6">
-        <v>79.0</v>
-      </c>
-      <c r="G17" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" s="8"/>
+      <c r="E17" s="5">
+        <v>75</v>
+      </c>
+      <c r="F17" s="5">
+        <v>79</v>
+      </c>
+      <c r="G17" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" s="7"/>
       <c r="I17" s="1" t="s">
         <v>22</v>
       </c>
@@ -2046,10 +2053,10 @@
       <c r="S17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="T17" s="8"/>
-      <c r="U17" s="8"/>
-    </row>
-    <row r="18">
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
+    </row>
+    <row r="18" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>60</v>
       </c>
@@ -2062,16 +2069,16 @@
       <c r="D18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="6">
-        <v>80.0</v>
-      </c>
-      <c r="F18" s="6">
-        <v>999.0</v>
-      </c>
-      <c r="G18" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" s="8"/>
+      <c r="E18" s="5">
+        <v>80</v>
+      </c>
+      <c r="F18" s="5">
+        <v>999</v>
+      </c>
+      <c r="G18" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" s="7"/>
       <c r="I18" s="1" t="s">
         <v>22</v>
       </c>
@@ -2105,10 +2112,10 @@
       <c r="S18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="T18" s="8"/>
-      <c r="U18" s="8"/>
-    </row>
-    <row r="19">
+      <c r="T18" s="7"/>
+      <c r="U18" s="7"/>
+    </row>
+    <row r="19" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>61</v>
       </c>
@@ -2121,16 +2128,16 @@
       <c r="D19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="6">
-        <v>70.0</v>
-      </c>
-      <c r="F19" s="6">
-        <v>999.0</v>
-      </c>
-      <c r="G19" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" s="8"/>
+      <c r="E19" s="5">
+        <v>70</v>
+      </c>
+      <c r="F19" s="5">
+        <v>999</v>
+      </c>
+      <c r="G19" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19" s="7"/>
       <c r="I19" s="1" t="s">
         <v>22</v>
       </c>
@@ -2164,10 +2171,10 @@
       <c r="S19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="T19" s="8"/>
-      <c r="U19" s="8"/>
-    </row>
-    <row r="20">
+      <c r="T19" s="7"/>
+      <c r="U19" s="7"/>
+    </row>
+    <row r="20" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>62</v>
       </c>
@@ -2180,16 +2187,16 @@
       <c r="D20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="6">
-        <v>13.0</v>
-      </c>
-      <c r="F20" s="6">
-        <v>17.0</v>
-      </c>
-      <c r="G20" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" s="8"/>
+      <c r="E20" s="5">
+        <v>13</v>
+      </c>
+      <c r="F20" s="5">
+        <v>17</v>
+      </c>
+      <c r="G20" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20" s="7"/>
       <c r="I20" s="1" t="s">
         <v>22</v>
       </c>
@@ -2218,15 +2225,12 @@
         <v>33</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="S20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="T20" s="8"/>
-      <c r="U20" s="8"/>
-    </row>
-    <row r="21">
+      <c r="T20" s="7"/>
+      <c r="U20" s="7"/>
+    </row>
+    <row r="21" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>65</v>
       </c>
@@ -2239,19 +2243,17 @@
       <c r="D21" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="6">
-        <v>15.0</v>
-      </c>
-      <c r="F21" s="6">
-        <v>20.0</v>
-      </c>
-      <c r="G21" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" s="8"/>
-      <c r="I21" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="E21" s="5">
+        <v>15</v>
+      </c>
+      <c r="F21" s="5">
+        <v>20</v>
+      </c>
+      <c r="G21" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21" s="7"/>
+      <c r="I21" s="1"/>
       <c r="J21" s="1" t="s">
         <v>23</v>
       </c>
@@ -2282,10 +2284,10 @@
       <c r="S21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="T21" s="8"/>
-      <c r="U21" s="8"/>
-    </row>
-    <row r="22">
+      <c r="T21" s="7"/>
+      <c r="U21" s="7"/>
+    </row>
+    <row r="22" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>44</v>
       </c>
@@ -2298,19 +2300,17 @@
       <c r="D22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="6">
-        <v>15.0</v>
-      </c>
-      <c r="F22" s="6">
-        <v>999.0</v>
-      </c>
-      <c r="G22" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" s="8"/>
-      <c r="I22" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="E22" s="5">
+        <v>15</v>
+      </c>
+      <c r="F22" s="5">
+        <v>999</v>
+      </c>
+      <c r="G22" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22" s="7"/>
+      <c r="I22" s="1"/>
       <c r="J22" s="1" t="s">
         <v>23</v>
       </c>
@@ -2341,10 +2341,10 @@
       <c r="S22" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="T22" s="8"/>
-      <c r="U22" s="8"/>
-    </row>
-    <row r="23">
+      <c r="T22" s="7"/>
+      <c r="U22" s="7"/>
+    </row>
+    <row r="23" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>66</v>
       </c>
@@ -2357,13 +2357,13 @@
       <c r="D23" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E23" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="F23" s="6">
-        <v>999.0</v>
-      </c>
-      <c r="G23" s="9" t="b">
+      <c r="E23" s="5">
+        <v>0</v>
+      </c>
+      <c r="F23" s="5">
+        <v>999</v>
+      </c>
+      <c r="G23" s="8" t="b">
         <v>1</v>
       </c>
       <c r="H23" s="1" t="s">
@@ -2402,10 +2402,10 @@
       <c r="S23" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="T23" s="8"/>
-      <c r="U23" s="8"/>
-    </row>
-    <row r="24">
+      <c r="T23" s="7"/>
+      <c r="U23" s="7"/>
+    </row>
+    <row r="24" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>15</v>
       </c>
@@ -2418,33 +2418,33 @@
       <c r="D24" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E24" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="F24" s="6">
-        <v>10.0</v>
-      </c>
-      <c r="G24" s="9" t="b">
+      <c r="E24" s="5">
+        <v>0</v>
+      </c>
+      <c r="F24" s="5">
+        <v>10</v>
+      </c>
+      <c r="G24" s="8" t="b">
         <v>0</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="8"/>
-      <c r="R24" s="8"/>
-      <c r="S24" s="8"/>
-      <c r="T24" s="8"/>
-      <c r="U24" s="8"/>
-    </row>
-    <row r="25">
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="7"/>
+      <c r="T24" s="7"/>
+      <c r="U24" s="7"/>
+    </row>
+    <row r="25" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2457,13 +2457,13 @@
       <c r="D25" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E25" s="6">
-        <v>11.0</v>
-      </c>
-      <c r="F25" s="6">
-        <v>13.0</v>
-      </c>
-      <c r="G25" s="9" t="b">
+      <c r="E25" s="5">
+        <v>11</v>
+      </c>
+      <c r="F25" s="5">
+        <v>13</v>
+      </c>
+      <c r="G25" s="8" t="b">
         <v>0</v>
       </c>
       <c r="H25" s="1" t="s">
@@ -2493,13 +2493,13 @@
       <c r="P25" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="Q25" s="8"/>
-      <c r="R25" s="8"/>
-      <c r="S25" s="8"/>
-      <c r="T25" s="8"/>
-      <c r="U25" s="8"/>
-    </row>
-    <row r="26">
+      <c r="Q25" s="7"/>
+      <c r="R25" s="7"/>
+      <c r="S25" s="7"/>
+      <c r="T25" s="7"/>
+      <c r="U25" s="7"/>
+    </row>
+    <row r="26" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>29</v>
       </c>
@@ -2512,18 +2512,18 @@
       <c r="D26" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E26" s="6">
-        <v>14.0</v>
-      </c>
-      <c r="F26" s="6">
-        <v>15.0</v>
-      </c>
-      <c r="G26" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
+      <c r="E26" s="5">
+        <v>14</v>
+      </c>
+      <c r="F26" s="5">
+        <v>15</v>
+      </c>
+      <c r="G26" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
       <c r="K26" s="1" t="s">
         <v>36</v>
       </c>
@@ -2554,9 +2554,9 @@
       <c r="T26" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="U26" s="8"/>
-    </row>
-    <row r="27">
+      <c r="U26" s="7"/>
+    </row>
+    <row r="27" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>34</v>
       </c>
@@ -2569,18 +2569,18 @@
       <c r="D27" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E27" s="6">
-        <v>16.0</v>
-      </c>
-      <c r="F27" s="6">
-        <v>17.0</v>
-      </c>
-      <c r="G27" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
+      <c r="E27" s="5">
+        <v>16</v>
+      </c>
+      <c r="F27" s="5">
+        <v>17</v>
+      </c>
+      <c r="G27" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
       <c r="K27" s="1" t="s">
         <v>36</v>
       </c>
@@ -2611,9 +2611,9 @@
       <c r="T27" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="U27" s="8"/>
-    </row>
-    <row r="28">
+      <c r="U27" s="7"/>
+    </row>
+    <row r="28" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>38</v>
       </c>
@@ -2626,19 +2626,19 @@
       <c r="D28" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E28" s="6">
-        <v>18.0</v>
-      </c>
-      <c r="F28" s="6">
-        <v>20.0</v>
-      </c>
-      <c r="G28" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
+      <c r="E28" s="5">
+        <v>18</v>
+      </c>
+      <c r="F28" s="5">
+        <v>20</v>
+      </c>
+      <c r="G28" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
       <c r="L28" s="1" t="s">
         <v>37</v>
       </c>
@@ -2670,7 +2670,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>43</v>
       </c>
@@ -2683,19 +2683,19 @@
       <c r="D29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E29" s="6">
-        <v>21.0</v>
-      </c>
-      <c r="F29" s="6">
-        <v>99.0</v>
-      </c>
-      <c r="G29" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
+      <c r="E29" s="5">
+        <v>21</v>
+      </c>
+      <c r="F29" s="5">
+        <v>99</v>
+      </c>
+      <c r="G29" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
       <c r="L29" s="1" t="s">
         <v>37</v>
       </c>
@@ -2727,7 +2727,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>68</v>
       </c>
@@ -2740,19 +2740,19 @@
       <c r="D30" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E30" s="6">
-        <v>30.0</v>
-      </c>
-      <c r="F30" s="6">
-        <v>34.0</v>
-      </c>
-      <c r="G30" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
+      <c r="E30" s="5">
+        <v>30</v>
+      </c>
+      <c r="F30" s="5">
+        <v>34</v>
+      </c>
+      <c r="G30" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
       <c r="L30" s="1" t="s">
         <v>37</v>
       </c>
@@ -2784,7 +2784,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>13</v>
       </c>
@@ -2797,19 +2797,19 @@
       <c r="D31" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E31" s="6">
-        <v>35.0</v>
-      </c>
-      <c r="F31" s="6">
-        <v>39.0</v>
-      </c>
-      <c r="G31" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
+      <c r="E31" s="5">
+        <v>35</v>
+      </c>
+      <c r="F31" s="5">
+        <v>39</v>
+      </c>
+      <c r="G31" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
       <c r="L31" s="1" t="s">
         <v>37</v>
       </c>
@@ -2841,7 +2841,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
@@ -2854,19 +2854,19 @@
       <c r="D32" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E32" s="6">
-        <v>40.0</v>
-      </c>
-      <c r="F32" s="6">
-        <v>44.0</v>
-      </c>
-      <c r="G32" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
+      <c r="E32" s="5">
+        <v>40</v>
+      </c>
+      <c r="F32" s="5">
+        <v>44</v>
+      </c>
+      <c r="G32" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
       <c r="L32" s="1" t="s">
         <v>37</v>
       </c>
@@ -2898,7 +2898,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>35</v>
       </c>
@@ -2911,19 +2911,19 @@
       <c r="D33" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E33" s="6">
-        <v>45.0</v>
-      </c>
-      <c r="F33" s="6">
-        <v>49.0</v>
-      </c>
-      <c r="G33" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
+      <c r="E33" s="5">
+        <v>45</v>
+      </c>
+      <c r="F33" s="5">
+        <v>49</v>
+      </c>
+      <c r="G33" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
       <c r="L33" s="1" t="s">
         <v>37</v>
       </c>
@@ -2955,7 +2955,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>69</v>
       </c>
@@ -2968,19 +2968,19 @@
       <c r="D34" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E34" s="6">
-        <v>50.0</v>
-      </c>
-      <c r="F34" s="6">
-        <v>54.0</v>
-      </c>
-      <c r="G34" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
+      <c r="E34" s="5">
+        <v>50</v>
+      </c>
+      <c r="F34" s="5">
+        <v>54</v>
+      </c>
+      <c r="G34" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
       <c r="L34" s="1" t="s">
         <v>37</v>
       </c>
@@ -3012,7 +3012,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>37</v>
       </c>
@@ -3025,19 +3025,19 @@
       <c r="D35" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E35" s="6">
-        <v>55.0</v>
-      </c>
-      <c r="F35" s="6">
-        <v>59.0</v>
-      </c>
-      <c r="G35" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
+      <c r="E35" s="5">
+        <v>55</v>
+      </c>
+      <c r="F35" s="5">
+        <v>59</v>
+      </c>
+      <c r="G35" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
       <c r="L35" s="1" t="s">
         <v>37</v>
       </c>
@@ -3069,7 +3069,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>70</v>
       </c>
@@ -3082,19 +3082,19 @@
       <c r="D36" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E36" s="6">
-        <v>60.0</v>
-      </c>
-      <c r="F36" s="6">
-        <v>64.0</v>
-      </c>
-      <c r="G36" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
+      <c r="E36" s="5">
+        <v>60</v>
+      </c>
+      <c r="F36" s="5">
+        <v>64</v>
+      </c>
+      <c r="G36" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
       <c r="L36" s="1" t="s">
         <v>37</v>
       </c>
@@ -3126,7 +3126,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>71</v>
       </c>
@@ -3139,19 +3139,19 @@
       <c r="D37" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E37" s="6">
-        <v>65.0</v>
-      </c>
-      <c r="F37" s="6">
-        <v>69.0</v>
-      </c>
-      <c r="G37" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
+      <c r="E37" s="5">
+        <v>65</v>
+      </c>
+      <c r="F37" s="5">
+        <v>69</v>
+      </c>
+      <c r="G37" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
       <c r="L37" s="1" t="s">
         <v>37</v>
       </c>
@@ -3183,7 +3183,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>72</v>
       </c>
@@ -3196,19 +3196,19 @@
       <c r="D38" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E38" s="6">
-        <v>70.0</v>
-      </c>
-      <c r="F38" s="6">
-        <v>74.0</v>
-      </c>
-      <c r="G38" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
+      <c r="E38" s="5">
+        <v>70</v>
+      </c>
+      <c r="F38" s="5">
+        <v>74</v>
+      </c>
+      <c r="G38" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
       <c r="L38" s="1" t="s">
         <v>37</v>
       </c>
@@ -3240,7 +3240,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>73</v>
       </c>
@@ -3253,19 +3253,19 @@
       <c r="D39" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E39" s="6">
-        <v>75.0</v>
-      </c>
-      <c r="F39" s="6">
-        <v>79.0</v>
-      </c>
-      <c r="G39" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
+      <c r="E39" s="5">
+        <v>75</v>
+      </c>
+      <c r="F39" s="5">
+        <v>79</v>
+      </c>
+      <c r="G39" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
       <c r="L39" s="1" t="s">
         <v>37</v>
       </c>
@@ -3297,7 +3297,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>74</v>
       </c>
@@ -3310,19 +3310,19 @@
       <c r="D40" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E40" s="6">
-        <v>80.0</v>
-      </c>
-      <c r="F40" s="6">
-        <v>999.0</v>
-      </c>
-      <c r="G40" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="8"/>
+      <c r="E40" s="5">
+        <v>80</v>
+      </c>
+      <c r="F40" s="5">
+        <v>999</v>
+      </c>
+      <c r="G40" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
       <c r="L40" s="1" t="s">
         <v>37</v>
       </c>
@@ -3354,7 +3354,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>62</v>
       </c>
@@ -3367,18 +3367,18 @@
       <c r="D41" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E41" s="6">
-        <v>13.0</v>
-      </c>
-      <c r="F41" s="6">
-        <v>17.0</v>
-      </c>
-      <c r="G41" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H41" s="8"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="8"/>
+      <c r="E41" s="5">
+        <v>13</v>
+      </c>
+      <c r="F41" s="5">
+        <v>17</v>
+      </c>
+      <c r="G41" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
       <c r="K41" s="1" t="s">
         <v>36</v>
       </c>
@@ -3409,9 +3409,9 @@
       <c r="T41" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="U41" s="8"/>
-    </row>
-    <row r="42">
+      <c r="U41" s="7"/>
+    </row>
+    <row r="42" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>65</v>
       </c>
@@ -3424,47 +3424,51 @@
       <c r="D42" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E42" s="6">
-        <v>15.0</v>
-      </c>
-      <c r="F42" s="6">
-        <v>20.0</v>
-      </c>
-      <c r="G42" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
-      <c r="J42" s="8"/>
-      <c r="K42" s="8"/>
-      <c r="L42" s="1" t="s">
+      <c r="E42" s="5">
+        <v>15</v>
+      </c>
+      <c r="F42" s="5">
+        <v>20</v>
+      </c>
+      <c r="G42" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="M42" s="1" t="s">
+      <c r="M42" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="N42" s="1" t="s">
+      <c r="N42" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="O42" s="1" t="s">
+      <c r="O42" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="P42" s="1" t="s">
+      <c r="P42" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="Q42" s="8"/>
-      <c r="R42" s="1" t="s">
+      <c r="Q42" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="R42" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="S42" s="8"/>
-      <c r="T42" s="1" t="s">
+      <c r="S42" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="T42" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="U42" s="1" t="s">
+      <c r="U42" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>44</v>
       </c>
@@ -3477,19 +3481,19 @@
       <c r="D43" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E43" s="6">
-        <v>15.0</v>
-      </c>
-      <c r="F43" s="6">
-        <v>999.0</v>
-      </c>
-      <c r="G43" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="8"/>
+      <c r="E43" s="5">
+        <v>15</v>
+      </c>
+      <c r="F43" s="5">
+        <v>999</v>
+      </c>
+      <c r="G43" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
       <c r="L43" s="1" t="s">
         <v>37</v>
       </c>
@@ -3521,7 +3525,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>66</v>
       </c>
@@ -3534,13 +3538,13 @@
       <c r="D44" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E44" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="F44" s="6">
-        <v>999.0</v>
-      </c>
-      <c r="G44" s="9" t="b">
+      <c r="E44" s="5">
+        <v>0</v>
+      </c>
+      <c r="F44" s="5">
+        <v>999</v>
+      </c>
+      <c r="G44" s="8" t="b">
         <v>1</v>
       </c>
       <c r="H44" s="1" t="s">
@@ -3590,6 +3594,6 @@
   <mergeCells count="1">
     <mergeCell ref="H1:J1"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>